--- a/wrf_management/planning/the_big_run/analysis.xlsx
+++ b/wrf_management/planning/the_big_run/analysis.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/wrf_management/wrf_management/planning/the_big_run/"/>
@@ -136,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d\.m\.yy;@"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +150,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +183,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -471,7 +477,11 @@
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="15.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="3.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -731,6 +741,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>